--- a/backend/data/Matches.xlsx
+++ b/backend/data/Matches.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Matches" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -37,40 +37,168 @@
     <t xml:space="preserve">player2</t>
   </si>
   <si>
-    <t xml:space="preserve">2023/06/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hall 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniil Medvedev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borna Coric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hall 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Carreno Busta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botic van de Zandschulp</t>
+    <t xml:space="preserve">2023/06/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachia Vickery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeynep Sonmez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Goffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesper de Jong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priscilla Hon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalija Stevanovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinky Hijikata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardas Berankis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Fils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre-Hugues Herbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edan Leshem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Mpetshi Perricard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carol Zhao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristina Dmitruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lena Papadakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylah Preston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Hontama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan Bandecchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emina Bektas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita Raina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/06/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronika Kudermetova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alison Riske-Amritraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Azarenka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milos Raonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miomir Kecmanovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs Brouwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc-Andrea Huesler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxime Cressy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugo Humbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Kubler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liudmila Samsonova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalma Galfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Bublik &amp; Mackenzie McDonald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallon Griekspoor &amp; Robin Haase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Nakashima &amp; Emil Ruusuvuori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Nys &amp; Jan Zielinski </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greet Minnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessika Ponchet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ysaline Bonaventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oksana Kalashnikova &amp; Aliaksandra Sasnovich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesley Pattinama Kerkhove &amp; Bibiane Schoofs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elise Mertens &amp; Demi Schuurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashlyn Krueger &amp; Erin Routliffe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="[$-413]@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,9 +216,50 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,11 +270,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -135,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,11 +320,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -161,6 +373,120 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF0A0A0A"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF222222"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -169,23 +495,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -198,12 +525,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.416666666666667</v>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
@@ -211,28 +538,420 @@
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.625</v>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E6 D14:E15 E16:E17 D17 D20">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:E15 E16:E19 D17:D20">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>ISBLANK(D12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14 E16 D17 D20">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/backend/data/Matches.xlsx
+++ b/backend/data/Matches.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/data/Matches.xlsx
+++ b/backend/data/Matches.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="94">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -284,6 +284,24 @@
   </si>
   <si>
     <t xml:space="preserve">Borna Coric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/06/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniil Medvedev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex de Minaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/06/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/06/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/06/18</t>
   </si>
 </sst>
 </file>
@@ -413,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,6 +493,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,10 +631,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1487,6 +1509,380 @@
       </c>
       <c r="E51" s="0" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1899,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 D14:E15 E16:E17 D17 D20">
+  <conditionalFormatting sqref="D14:E15 E16:E17 D17 D20 E6">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>TRUE()</formula>
     </cfRule>
